--- a/keineahnung/szenario.xlsx
+++ b/keineahnung/szenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sege/Workspace/VNM3/matsim-leipzig-senf50/keineahnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31462EF-A640-424B-AE26-4C0F08C08C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3C7C9-E7B6-1C40-B911-E5B68ECDB561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7600" yWindow="3400" windowWidth="36000" windowHeight="22500" xr2:uid="{CAE826CF-1DB7-C442-9623-199FB54D8481}"/>
   </bookViews>
@@ -38,24 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
-    <t>Szenarian</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
-    <t>Distanz</t>
-  </si>
-  <si>
-    <t>Geschwindigkeit</t>
-  </si>
-  <si>
     <t>Polygon</t>
   </si>
   <si>
-    <t>Zeitabhängigkeit</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -68,10 +56,22 @@
     <t>Distance toll</t>
   </si>
   <si>
-    <t>Everything ist toll</t>
-  </si>
-  <si>
     <t>‚</t>
+  </si>
+  <si>
+    <t>Combined toll</t>
+  </si>
+  <si>
+    <t>Tolling Schemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. Speed </t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Time dependent</t>
   </si>
 </sst>
 </file>
@@ -439,95 +439,95 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/keineahnung/szenario.xlsx
+++ b/keineahnung/szenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sege/Workspace/VNM3/matsim-leipzig-senf50/keineahnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3C7C9-E7B6-1C40-B911-E5B68ECDB561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD909125-E8DC-C242-9087-8B01ECA71635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="3400" windowWidth="36000" windowHeight="22500" xr2:uid="{CAE826CF-1DB7-C442-9623-199FB54D8481}"/>
+    <workbookView xWindow="-36000" yWindow="6300" windowWidth="36000" windowHeight="22500" xr2:uid="{CAE826CF-1DB7-C442-9623-199FB54D8481}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Distance toll</t>
   </si>
   <si>
-    <t>‚</t>
-  </si>
-  <si>
     <t>Combined toll</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Time dependent</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="218" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,22 +439,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -512,7 +512,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>

--- a/keineahnung/szenario.xlsx
+++ b/keineahnung/szenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sege/Workspace/VNM3/matsim-leipzig-senf50/keineahnung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persönliches\Uni\FS8\VNMIII\matsim-leipzig-senf50\keineahnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD909125-E8DC-C242-9087-8B01ECA71635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2276325-000F-4ACB-B8BA-4A76C069EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="6300" windowWidth="36000" windowHeight="22500" xr2:uid="{CAE826CF-1DB7-C442-9623-199FB54D8481}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CAE826CF-1DB7-C442-9623-199FB54D8481}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Base</t>
   </si>
@@ -65,13 +65,16 @@
     <t xml:space="preserve">Max. Speed </t>
   </si>
   <si>
-    <t>Distance</t>
-  </si>
-  <si>
     <t>Time dependent</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Distance every link</t>
+  </si>
+  <si>
+    <t>CarEnterPenalty</t>
+  </si>
+  <si>
+    <t>Iteration amount</t>
   </si>
 </sst>
 </file>
@@ -426,18 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783EC49C-B2C8-2A48-BC51-E67E2215BBA9}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="218" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -451,18 +457,24 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
+      <c r="G1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>350</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -475,8 +487,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="1"/>
+      <c r="G3">
+        <v>350</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -491,8 +506,11 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4">
+        <v>350</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -509,8 +527,11 @@
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G5">
+        <v>350</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -528,6 +549,9 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="G6">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/keineahnung/szenario.xlsx
+++ b/keineahnung/szenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persönliches\Uni\FS8\VNMIII\matsim-leipzig-senf50\keineahnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2276325-000F-4ACB-B8BA-4A76C069EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC91F397-A83F-4DDE-B4CE-64262D0D1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CAE826CF-1DB7-C442-9623-199FB54D8481}"/>
   </bookViews>
@@ -90,15 +90,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -106,13 +112,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,7 +500,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -440,91 +508,97 @@
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3">
         <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4">
         <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G5">
@@ -532,22 +606,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G6">

--- a/keineahnung/szenario.xlsx
+++ b/keineahnung/szenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persönliches\Uni\FS8\VNMIII\matsim-leipzig-senf50\keineahnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sege/Workspace/VNM3/matsim-leipzig-senf50/keineahnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2276325-000F-4ACB-B8BA-4A76C069EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E2566D-BCDB-1841-ABC1-B782D33517A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CAE826CF-1DB7-C442-9623-199FB54D8481}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{CAE826CF-1DB7-C442-9623-199FB54D8481}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -65,16 +65,16 @@
     <t xml:space="preserve">Max. Speed </t>
   </si>
   <si>
-    <t>Time dependent</t>
-  </si>
-  <si>
-    <t>Distance every link</t>
-  </si>
-  <si>
     <t>CarEnterPenalty</t>
   </si>
   <si>
-    <t>Iteration amount</t>
+    <t>Distance on Every Link</t>
+  </si>
+  <si>
+    <t>Time Dependent</t>
+  </si>
+  <si>
+    <t>Iteration Amount</t>
   </si>
 </sst>
 </file>
@@ -432,23 +432,24 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -460,13 +461,13 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +475,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -491,7 +492,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -510,7 +511,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -531,7 +532,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
